--- a/data/tehilim-data/12.xlsx
+++ b/data/tehilim-data/12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
   <si>
     <t>original</t>
   </si>
@@ -55,10 +55,16 @@
     <t>Господь</t>
   </si>
   <si>
-    <t>בְּהֵיכַל קָדְשׁוֹ</t>
-  </si>
-  <si>
-    <t>во дворце святом Его</t>
+    <t xml:space="preserve">בְּהֵיכַל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">во дворце </t>
+  </si>
+  <si>
+    <t>קָדְשׁוֹ</t>
+  </si>
+  <si>
+    <t>святом Его</t>
   </si>
   <si>
     <t>בַּשָּׁמַיִם</t>
@@ -106,10 +112,16 @@
     <t>ה</t>
   </si>
   <si>
-    <t>צַדִּיק יִבְחָן</t>
-  </si>
-  <si>
-    <t>праведного испытывает</t>
+    <t xml:space="preserve">צַדִּיק </t>
+  </si>
+  <si>
+    <t>праведного</t>
+  </si>
+  <si>
+    <t>יִבְחָן</t>
+  </si>
+  <si>
+    <t>испытывает</t>
   </si>
   <si>
     <t>וְרָשָׁע</t>
@@ -130,10 +142,16 @@
     <t>насилие</t>
   </si>
   <si>
-    <t>שָׂנְאָה נַפְשׁוֹ</t>
-  </si>
-  <si>
-    <t>ненавидит душа Его</t>
+    <t xml:space="preserve">שָׂנְאָה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ненавидит </t>
+  </si>
+  <si>
+    <t>נַפְשׁוֹ</t>
+  </si>
+  <si>
+    <t>душа Его</t>
   </si>
   <si>
     <t>ו</t>
@@ -181,10 +199,16 @@
     <t>палящий</t>
   </si>
   <si>
-    <t>מְנָת כּוֹסָם</t>
-  </si>
-  <si>
-    <t>удел чаши их</t>
+    <t>מְנָת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">удел </t>
+  </si>
+  <si>
+    <t>כּוֹסָם</t>
+  </si>
+  <si>
+    <t>чаши их</t>
   </si>
   <si>
     <t>ז</t>
@@ -214,10 +238,16 @@
     <t>прямой</t>
   </si>
   <si>
-    <t>יֶחֱזוּ פָנֵימוֹ</t>
-  </si>
-  <si>
-    <t>будут видеть лик Его</t>
+    <t xml:space="preserve">יֶחֱזוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">будут видеть </t>
+  </si>
+  <si>
+    <t>פָנֵימוֹ</t>
+  </si>
+  <si>
+    <t>лик Его</t>
   </si>
   <si>
     <t>מִשֹּׁד</t>
@@ -256,28 +286,49 @@
     <t>восстану</t>
   </si>
   <si>
-    <t>יֹאמַר יְהוָה</t>
-  </si>
-  <si>
-    <t>говорит Господь</t>
-  </si>
-  <si>
-    <t>אָשִׁית בְּיֵשַׁע יָפִיחַ לוֹ</t>
-  </si>
-  <si>
-    <t>положу в безопасность того, кто воздыхает</t>
-  </si>
-  <si>
-    <t>אֲמָרוֹת יְהוָה</t>
-  </si>
-  <si>
-    <t>Речения Господа</t>
-  </si>
-  <si>
-    <t>אֲמָרוֹת טְהֹרוֹת</t>
-  </si>
-  <si>
-    <t>речения чистые</t>
+    <t>יֹאמַר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">говорит </t>
+  </si>
+  <si>
+    <t>אָשִׁית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">положу </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> בְּיֵשַׁע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в безопасность того, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יָפִיחַ לוֹ</t>
+  </si>
+  <si>
+    <t>кто воздыхает</t>
+  </si>
+  <si>
+    <t>אֲמָרוֹת</t>
+  </si>
+  <si>
+    <t>Речения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יְהוָה</t>
+  </si>
+  <si>
+    <t>Господа</t>
+  </si>
+  <si>
+    <t>речения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> טְהֹרוֹת</t>
+  </si>
+  <si>
+    <t>чистые</t>
   </si>
   <si>
     <t>כֶּסֶף</t>
@@ -376,17 +427,23 @@
     <t>ничтожных</t>
   </si>
   <si>
-    <t>לִבְנֵי אָדָם</t>
-  </si>
-  <si>
-    <t>для сынов человеческих</t>
+    <t>לִבְנֵי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для сынов </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אָדָם</t>
+  </si>
+  <si>
+    <t>человеческих</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -402,13 +459,27 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -417,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -430,6 +501,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,20 +812,20 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -804,26 +887,26 @@
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4">
-        <v>5.0</v>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -837,10 +920,10 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2"/>
@@ -867,35 +950,35 @@
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="4">
-        <v>6.0</v>
+      <c r="B25" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.0</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -948,116 +1031,116 @@
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="4">
-        <v>7.0</v>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>62</v>
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7.0</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4">
-        <v>6.0</v>
+        <v>69</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>74</v>
+      <c r="A44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6.0</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -1090,46 +1173,46 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="4">
-        <v>7.0</v>
+        <v>85</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>92</v>
+      <c r="A54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -1155,127 +1238,229 @@
       <c r="A57" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="4">
-        <v>9.0</v>
+        <v>108</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="B68" s="4">
+        <v>8.0</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
